--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fn1-Col13a1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fn1-Col13a1.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.03890566666666</v>
+        <v>6.240107999999999</v>
       </c>
       <c r="H2">
-        <v>81.11671699999999</v>
+        <v>18.720324</v>
       </c>
       <c r="I2">
-        <v>0.07096188219033728</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="J2">
-        <v>0.07096188219033729</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1042226666666667</v>
+        <v>0.1837056666666667</v>
       </c>
       <c r="N2">
-        <v>0.312668</v>
+        <v>0.5511170000000001</v>
       </c>
       <c r="O2">
-        <v>0.6017220210075787</v>
+        <v>0.7269991860920679</v>
       </c>
       <c r="P2">
-        <v>0.6017220210075785</v>
+        <v>0.7269991860920678</v>
       </c>
       <c r="Q2">
-        <v>2.818066852328444</v>
+        <v>1.146343200212</v>
       </c>
       <c r="R2">
-        <v>25.362601670956</v>
+        <v>10.317088801908</v>
       </c>
       <c r="S2">
-        <v>0.04269932716607145</v>
+        <v>0.01259330180736963</v>
       </c>
       <c r="T2">
-        <v>0.04269932716607145</v>
+        <v>0.01259330180736963</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.03890566666666</v>
+        <v>6.240107999999999</v>
       </c>
       <c r="H3">
-        <v>81.11671699999999</v>
+        <v>18.720324</v>
       </c>
       <c r="I3">
-        <v>0.07096188219033728</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="J3">
-        <v>0.07096188219033729</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.192158</v>
       </c>
       <c r="O3">
-        <v>0.3698034340347406</v>
+        <v>0.2534828531892131</v>
       </c>
       <c r="P3">
-        <v>0.3698034340347406</v>
+        <v>0.2534828531892131</v>
       </c>
       <c r="Q3">
-        <v>1.731914011698444</v>
+        <v>0.3996955576879999</v>
       </c>
       <c r="R3">
-        <v>15.587226105286</v>
+        <v>3.597260019191999</v>
       </c>
       <c r="S3">
-        <v>0.02624194771955543</v>
+        <v>0.004390907354882054</v>
       </c>
       <c r="T3">
-        <v>0.02624194771955543</v>
+        <v>0.004390907354882055</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.03890566666666</v>
+        <v>6.240107999999999</v>
       </c>
       <c r="H4">
-        <v>81.11671699999999</v>
+        <v>18.720324</v>
       </c>
       <c r="I4">
-        <v>0.07096188219033728</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="J4">
-        <v>0.07096188219033729</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,22 +682,22 @@
         <v>0.014796</v>
       </c>
       <c r="O4">
-        <v>0.02847454495768078</v>
+        <v>0.01951796071871896</v>
       </c>
       <c r="P4">
-        <v>0.02847454495768078</v>
+        <v>0.01951796071871896</v>
       </c>
       <c r="Q4">
-        <v>0.133355882748</v>
+        <v>0.03077621265599999</v>
       </c>
       <c r="R4">
-        <v>1.200202944732</v>
+        <v>0.276985913904</v>
       </c>
       <c r="S4">
-        <v>0.002020607304710406</v>
+        <v>0.0003380960731420752</v>
       </c>
       <c r="T4">
-        <v>0.002020607304710406</v>
+        <v>0.0003380960731420752</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>1036.699737</v>
       </c>
       <c r="I5">
-        <v>0.9069174311350353</v>
+        <v>0.9592798330716089</v>
       </c>
       <c r="J5">
-        <v>0.9069174311350354</v>
+        <v>0.9592798330716091</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1042226666666667</v>
+        <v>0.1837056666666667</v>
       </c>
       <c r="N5">
-        <v>0.312668</v>
+        <v>0.5511170000000001</v>
       </c>
       <c r="O5">
-        <v>0.6017220210075787</v>
+        <v>0.7269991860920679</v>
       </c>
       <c r="P5">
-        <v>0.6017220210075785</v>
+        <v>0.7269991860920678</v>
       </c>
       <c r="Q5">
-        <v>36.01587037425733</v>
+        <v>63.48253877291434</v>
       </c>
       <c r="R5">
-        <v>324.142833368316</v>
+        <v>571.3428489562291</v>
       </c>
       <c r="S5">
-        <v>0.545712189549575</v>
+        <v>0.6973956578775945</v>
       </c>
       <c r="T5">
-        <v>0.5457121895495749</v>
+        <v>0.6973956578775945</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1036.699737</v>
       </c>
       <c r="I6">
-        <v>0.9069174311350353</v>
+        <v>0.9592798330716089</v>
       </c>
       <c r="J6">
-        <v>0.9069174311350354</v>
+        <v>0.9592798330716091</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.192158</v>
       </c>
       <c r="O6">
-        <v>0.3698034340347406</v>
+        <v>0.2534828531892131</v>
       </c>
       <c r="P6">
-        <v>0.3698034340347406</v>
+        <v>0.2534828531892131</v>
       </c>
       <c r="Q6">
         <v>22.13446089582733</v>
@@ -818,10 +818,10 @@
         <v>199.210148062446</v>
       </c>
       <c r="S6">
-        <v>0.3353811804197015</v>
+        <v>0.2431609890938635</v>
       </c>
       <c r="T6">
-        <v>0.3353811804197014</v>
+        <v>0.2431609890938635</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1036.699737</v>
       </c>
       <c r="I7">
-        <v>0.9069174311350353</v>
+        <v>0.9592798330716089</v>
       </c>
       <c r="J7">
-        <v>0.9069174311350354</v>
+        <v>0.9592798330716091</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,10 +868,10 @@
         <v>0.014796</v>
       </c>
       <c r="O7">
-        <v>0.02847454495768078</v>
+        <v>0.01951796071871896</v>
       </c>
       <c r="P7">
-        <v>0.02847454495768078</v>
+        <v>0.01951796071871896</v>
       </c>
       <c r="Q7">
         <v>1.704334367628</v>
@@ -880,10 +880,10 @@
         <v>15.339009308652</v>
       </c>
       <c r="S7">
-        <v>0.02582406116575892</v>
+        <v>0.01872318610015094</v>
       </c>
       <c r="T7">
-        <v>0.02582406116575893</v>
+        <v>0.01872318610015095</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.428738666666668</v>
+        <v>8.428738666666666</v>
       </c>
       <c r="H8">
         <v>25.286216</v>
       </c>
       <c r="I8">
-        <v>0.0221206866746274</v>
+        <v>0.02339786169299727</v>
       </c>
       <c r="J8">
-        <v>0.02212068667462741</v>
+        <v>0.02339786169299728</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1042226666666667</v>
+        <v>0.1837056666666667</v>
       </c>
       <c r="N8">
-        <v>0.312668</v>
+        <v>0.5511170000000001</v>
       </c>
       <c r="O8">
-        <v>0.6017220210075787</v>
+        <v>0.7269991860920679</v>
       </c>
       <c r="P8">
-        <v>0.6017220210075785</v>
+        <v>0.7269991860920678</v>
       </c>
       <c r="Q8">
-        <v>0.8784656204764446</v>
+        <v>1.548407055919111</v>
       </c>
       <c r="R8">
-        <v>7.906190584288001</v>
+        <v>13.935663503272</v>
       </c>
       <c r="S8">
-        <v>0.01331050429193221</v>
+        <v>0.01701022640710379</v>
       </c>
       <c r="T8">
-        <v>0.01331050429193222</v>
+        <v>0.01701022640710379</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.428738666666668</v>
+        <v>8.428738666666666</v>
       </c>
       <c r="H9">
         <v>25.286216</v>
       </c>
       <c r="I9">
-        <v>0.0221206866746274</v>
+        <v>0.02339786169299727</v>
       </c>
       <c r="J9">
-        <v>0.02212068667462741</v>
+        <v>0.02339786169299728</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,22 +992,22 @@
         <v>0.192158</v>
       </c>
       <c r="O9">
-        <v>0.3698034340347406</v>
+        <v>0.2534828531892131</v>
       </c>
       <c r="P9">
-        <v>0.3698034340347406</v>
+        <v>0.2534828531892131</v>
       </c>
       <c r="Q9">
-        <v>0.5398831882364444</v>
+        <v>0.5398831882364443</v>
       </c>
       <c r="R9">
         <v>4.858948694128</v>
       </c>
       <c r="S9">
-        <v>0.00818030589548374</v>
+        <v>0.00593095674046754</v>
       </c>
       <c r="T9">
-        <v>0.008180305895483742</v>
+        <v>0.005930956740467542</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.428738666666668</v>
+        <v>8.428738666666666</v>
       </c>
       <c r="H10">
         <v>25.286216</v>
       </c>
       <c r="I10">
-        <v>0.0221206866746274</v>
+        <v>0.02339786169299727</v>
       </c>
       <c r="J10">
-        <v>0.02212068667462741</v>
+        <v>0.02339786169299728</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1054,22 +1054,22 @@
         <v>0.014796</v>
       </c>
       <c r="O10">
-        <v>0.02847454495768078</v>
+        <v>0.01951796071871896</v>
       </c>
       <c r="P10">
-        <v>0.02847454495768078</v>
+        <v>0.01951796071871896</v>
       </c>
       <c r="Q10">
-        <v>0.041570539104</v>
+        <v>0.04157053910399999</v>
       </c>
       <c r="R10">
         <v>0.374134851936</v>
       </c>
       <c r="S10">
-        <v>0.000629876487211448</v>
+        <v>0.0004566785454259397</v>
       </c>
       <c r="T10">
-        <v>0.0006298764872114482</v>
+        <v>0.0004566785454259399</v>
       </c>
     </row>
   </sheetData>
